--- a/CHP/6.Gerenciamento de Projeto/CHP - Planejamento e Controle do Projeto.xlsx
+++ b/CHP/6.Gerenciamento de Projeto/CHP - Planejamento e Controle do Projeto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\teste\chamado-pro\CHP\6.Gerenciamento de Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Alonso\Desktop\CHP\chamado-pro\CHP\6.Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5056C-5AC5-4A16-9454-C8F099CAE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,17 @@
     <definedName name="Restante">"OFFSET([$#REF!.$B$12];0;0;1;COUNT([$#REF!.$B$12:.$L$12]))"</definedName>
     <definedName name="Restante2">"OFFSET(#ref!,0,0,1,COUNT(#ref!)))"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,12 +54,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -514,12 +515,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -613,12 +614,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -708,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -890,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F48" authorId="0" shapeId="0">
+    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0" shapeId="0">
+    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" shapeId="0">
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1519,7 +1520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J49" authorId="0" shapeId="0">
+    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K49" authorId="0" shapeId="0">
+    <comment ref="K49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1634,12 +1635,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1786,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1946,7 +1947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2063,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2106,7 +2107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0">
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2151,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2206,7 +2207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2339,7 +2340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2394,7 +2395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2507,7 +2508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2645,7 +2646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -2738,7 +2739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -2876,7 +2877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -2989,7 +2990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -3054,7 +3055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0">
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -3157,7 +3158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
       <text>
         <r>
           <rPr>
@@ -3202,7 +3203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0">
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000011000000}">
       <text>
         <r>
           <rPr>
@@ -3305,7 +3306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000012000000}">
       <text>
         <r>
           <rPr>
@@ -3370,7 +3371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0">
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000013000000}">
       <text>
         <r>
           <rPr>
@@ -3739,7 +3740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0" shapeId="0">
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000014000000}">
       <text>
         <r>
           <rPr>
@@ -3842,7 +3843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0" shapeId="0">
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000015000000}">
       <text>
         <r>
           <rPr>
@@ -4040,7 +4041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0">
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000016000000}">
       <text>
         <r>
           <rPr>
@@ -4143,7 +4144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0" shapeId="0">
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000017000000}">
       <text>
         <r>
           <rPr>
@@ -4246,7 +4247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000018000000}">
       <text>
         <r>
           <rPr>
@@ -4395,7 +4396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M21" authorId="0" shapeId="0">
+    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000019000000}">
       <text>
         <r>
           <rPr>
@@ -4498,7 +4499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0">
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -4701,12 +4702,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EM</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5569,7 +5570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="164" formatCode="[$-416]General"/>
     <numFmt numFmtId="165" formatCode="[$-416]0"/>
@@ -6512,18 +6513,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6532,6 +6521,18 @@
     <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6549,21 +6550,6 @@
     </xf>
     <xf numFmtId="164" fontId="28" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6579,6 +6565,21 @@
     <xf numFmtId="164" fontId="31" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6611,23 +6612,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="cf1" xfId="1"/>
-    <cellStyle name="cf2" xfId="2"/>
-    <cellStyle name="cf3" xfId="3"/>
-    <cellStyle name="cf4" xfId="4"/>
-    <cellStyle name="cf5" xfId="5"/>
-    <cellStyle name="cf6" xfId="6"/>
-    <cellStyle name="ConditionalStyle_1" xfId="7"/>
-    <cellStyle name="Excel Built-in Comma" xfId="8"/>
-    <cellStyle name="Excel Built-in Currency" xfId="9"/>
-    <cellStyle name="Excel Built-in Normal" xfId="10"/>
-    <cellStyle name="Excel Built-in Percent" xfId="11"/>
-    <cellStyle name="Heading" xfId="12"/>
-    <cellStyle name="Heading1" xfId="13"/>
-    <cellStyle name="Hiperlink" xfId="16" builtinId="8"/>
+    <cellStyle name="cf1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="cf2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="cf3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="cf4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="cf5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="cf6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="ConditionalStyle_1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in Comma" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Currency" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Excel Built-in Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Heading" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Heading1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="14"/>
-    <cellStyle name="Result2" xfId="15"/>
+    <cellStyle name="Result" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Result2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -8487,7 +8488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8634,11 +8635,11 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="1.181102362204725" bottom="1.181102362204725" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId6"/>
@@ -8648,11 +8649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8672,38 +8673,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="F1" s="133" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="F1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="F2" s="135" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="F2" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8724,20 +8725,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8970,11 +8971,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>24</v>
@@ -9077,7 +9078,7 @@
         <v>232</v>
       </c>
       <c r="D15" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
@@ -9125,7 +9126,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="12"/>
@@ -9149,7 +9150,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="12"/>
@@ -9173,7 +9174,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -9192,7 +9193,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -9201,14 +9202,14 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="8">
         <f>SUM(D12:D20)</f>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -9246,7 +9247,7 @@
         <v>233</v>
       </c>
       <c r="D23" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -9260,7 +9261,7 @@
         <v>236</v>
       </c>
       <c r="D24" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -9274,7 +9275,7 @@
         <v>235</v>
       </c>
       <c r="D25" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -9288,7 +9289,7 @@
         <v>234</v>
       </c>
       <c r="D26" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -9316,7 +9317,7 @@
         <v>239</v>
       </c>
       <c r="D28" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
@@ -9386,7 +9387,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9400,18 +9401,18 @@
         <v>39</v>
       </c>
       <c r="D34" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="137" t="s">
+      <c r="A35" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="8">
         <f>SUM(D22:D34)</f>
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9439,7 +9440,7 @@
         <v>42</v>
       </c>
       <c r="D37" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9467,7 +9468,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9481,7 +9482,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9495,7 +9496,7 @@
         <v>46</v>
       </c>
       <c r="D41" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9523,7 +9524,7 @@
         <v>48</v>
       </c>
       <c r="D43" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -9537,36 +9538,36 @@
         <v>38</v>
       </c>
       <c r="D44" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="138"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="8">
         <f>SUM(D36:D44)</f>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D46" s="24">
         <f>SUM(D11,D21,D35,D45)</f>
-        <v>202</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9577,11 +9578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9614,7 +9615,7 @@
       </c>
       <c r="B4" s="27">
         <f>Backlog_Produto!$D$46</f>
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>52</v>
@@ -9672,7 +9673,7 @@
       </c>
       <c r="B9" s="34">
         <f>B11/2</f>
-        <v>3.03</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>60</v>
@@ -9684,7 +9685,7 @@
       </c>
       <c r="B10" s="34">
         <f>B4+(B4*B5)</f>
-        <v>303</v>
+        <v>376.5</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>52</v>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="B11" s="32">
         <f>B10/B8*2</f>
-        <v>6.06</v>
+        <v>7.53</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>63</v>
@@ -9708,7 +9709,7 @@
       </c>
       <c r="B12" s="36">
         <f>B11/4</f>
-        <v>1.5149999999999999</v>
+        <v>1.8825000000000001</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>65</v>
@@ -9736,7 +9737,7 @@
       </c>
       <c r="B16" s="39">
         <f>B10*B15</f>
-        <v>6060</v>
+        <v>7530</v>
       </c>
       <c r="C16" s="38"/>
     </row>
@@ -9755,7 +9756,7 @@
       </c>
       <c r="B18" s="40">
         <f>B16*B17</f>
-        <v>1212</v>
+        <v>1506</v>
       </c>
       <c r="C18" s="38"/>
     </row>
@@ -9765,7 +9766,7 @@
       </c>
       <c r="B19" s="42">
         <f>B16+B18</f>
-        <v>7272</v>
+        <v>9036</v>
       </c>
       <c r="C19" s="38"/>
     </row>
@@ -9784,7 +9785,7 @@
       </c>
       <c r="B21" s="43">
         <f>B19*B20</f>
-        <v>1454.4</v>
+        <v>1807.2</v>
       </c>
       <c r="C21" s="38"/>
     </row>
@@ -9794,7 +9795,7 @@
       </c>
       <c r="B22" s="42">
         <f>B19+B21</f>
-        <v>8726.4</v>
+        <v>10843.2</v>
       </c>
       <c r="C22" s="38"/>
     </row>
@@ -9812,7 +9813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9856,7 +9857,7 @@
       <c r="D2" s="143"/>
       <c r="E2" s="44">
         <f>Planejamento!$B$10</f>
-        <v>303</v>
+        <v>376.5</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="143" t="s">
@@ -10181,7 +10182,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Planejado,Em execução,Entregue,Não planejado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10192,7 +10193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10423,10 +10424,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="147" t="s">
+      <c r="D33" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="147"/>
+      <c r="E33" s="153"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="70">
@@ -10478,137 +10479,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
     </row>
     <row r="42" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="149" t="s">
+      <c r="A42" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
     </row>
     <row r="43" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="150" t="s">
+      <c r="A43" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="150"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
     </row>
     <row r="44" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="153" t="s">
+      <c r="A46" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="153"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="153"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
     </row>
     <row r="47" spans="1:11" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="74" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="75"/>
-      <c r="C47" s="154" t="s">
+      <c r="C47" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="154"/>
-      <c r="K47" s="154"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="149"/>
     </row>
     <row r="48" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="155"/>
-      <c r="B48" s="151" t="s">
+      <c r="A48" s="150"/>
+      <c r="B48" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="D48" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="151" t="s">
+      <c r="E48" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="151" t="s">
+      <c r="F48" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="151" t="s">
+      <c r="G48" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="156" t="s">
+      <c r="H48" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="156"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
     </row>
     <row r="49" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="155"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151" t="s">
+      <c r="A49" s="150"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="151"/>
+      <c r="I49" s="146"/>
       <c r="J49" s="77" t="s">
         <v>142</v>
       </c>
@@ -10639,8 +10640,8 @@
       <c r="G50" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
       <c r="J50" s="84"/>
       <c r="K50" s="84" t="s">
         <v>145</v>
@@ -10787,8 +10788,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="82"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
+      <c r="H59" s="147"/>
+      <c r="I59" s="147"/>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
     </row>
@@ -10803,13 +10804,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="82"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
@@ -10824,12 +10831,6 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:K48"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
@@ -10843,16 +10844,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50:D60 IY50:IY60 SU50:SU60 ACQ50:ACQ60 D65558:D65560 IY65558:IY65560 SU65558:SU65560 ACQ65558:ACQ65560 D65569:D65571 IY65569:IY65571 SU65569:SU65571 ACQ65569:ACQ65571 D65580:D65582 IY65580:IY65582 SU65580:SU65582 ACQ65580:ACQ65582 D65591:D65593 IY65591:IY65593 SU65591:SU65593 ACQ65591:ACQ65593 D131094:D131096 IY131094:IY131096 SU131094:SU131096 ACQ131094:ACQ131096 D131105:D131107 IY131105:IY131107 SU131105:SU131107 ACQ131105:ACQ131107 D131116:D131118 IY131116:IY131118 SU131116:SU131118 ACQ131116:ACQ131118 D131127:D131129 IY131127:IY131129 SU131127:SU131129 ACQ131127:ACQ131129 D196630:D196632 IY196630:IY196632 SU196630:SU196632 ACQ196630:ACQ196632 D196641:D196643 IY196641:IY196643 SU196641:SU196643 ACQ196641:ACQ196643 D196652:D196654 IY196652:IY196654 SU196652:SU196654 ACQ196652:ACQ196654 D196663:D196665 IY196663:IY196665 SU196663:SU196665 ACQ196663:ACQ196665 D262166:D262168 IY262166:IY262168 SU262166:SU262168 ACQ262166:ACQ262168 D262177:D262179 IY262177:IY262179 SU262177:SU262179 ACQ262177:ACQ262179 D262188:D262190 IY262188:IY262190 SU262188:SU262190 ACQ262188:ACQ262190 D262199:D262201 IY262199:IY262201 SU262199:SU262201 ACQ262199:ACQ262201 D327702:D327704 IY327702:IY327704 SU327702:SU327704 ACQ327702:ACQ327704 D327713:D327715 IY327713:IY327715 SU327713:SU327715 ACQ327713:ACQ327715 D327724:D327726 IY327724:IY327726 SU327724:SU327726 ACQ327724:ACQ327726 D327735:D327737 IY327735:IY327737 SU327735:SU327737 ACQ327735:ACQ327737 D393238:D393240 IY393238:IY393240 SU393238:SU393240 ACQ393238:ACQ393240 D393249:D393251 IY393249:IY393251 SU393249:SU393251 ACQ393249:ACQ393251 D393260:D393262 IY393260:IY393262 SU393260:SU393262 ACQ393260:ACQ393262 D393271:D393273 IY393271:IY393273 SU393271:SU393273 ACQ393271:ACQ393273 D458774:D458776 IY458774:IY458776 SU458774:SU458776 ACQ458774:ACQ458776 D458785:D458787 IY458785:IY458787 SU458785:SU458787 ACQ458785:ACQ458787 D458796:D458798 IY458796:IY458798 SU458796:SU458798 ACQ458796:ACQ458798 D458807:D458809 IY458807:IY458809 SU458807:SU458809 ACQ458807:ACQ458809 D524310:D524312 IY524310:IY524312 SU524310:SU524312 ACQ524310:ACQ524312 D524321:D524323 IY524321:IY524323 SU524321:SU524323 ACQ524321:ACQ524323 D524332:D524334 IY524332:IY524334 SU524332:SU524334 ACQ524332:ACQ524334 D524343:D524345 IY524343:IY524345 SU524343:SU524345 ACQ524343:ACQ524345 D589846:D589848 IY589846:IY589848 SU589846:SU589848 ACQ589846:ACQ589848 D589857:D589859 IY589857:IY589859 SU589857:SU589859 ACQ589857:ACQ589859 D589868:D589870 IY589868:IY589870 SU589868:SU589870 ACQ589868:ACQ589870 D589879:D589881 IY589879:IY589881 SU589879:SU589881 ACQ589879:ACQ589881 D655382:D655384 IY655382:IY655384 SU655382:SU655384 ACQ655382:ACQ655384 D655393:D655395 IY655393:IY655395 SU655393:SU655395 ACQ655393:ACQ655395 D655404:D655406 IY655404:IY655406 SU655404:SU655406 ACQ655404:ACQ655406 D655415:D655417 IY655415:IY655417 SU655415:SU655417 ACQ655415:ACQ655417 D720918:D720920 IY720918:IY720920 SU720918:SU720920 ACQ720918:ACQ720920 D720929:D720931 IY720929:IY720931 SU720929:SU720931 ACQ720929:ACQ720931 D720940:D720942 IY720940:IY720942 SU720940:SU720942 ACQ720940:ACQ720942 D720951:D720953 IY720951:IY720953 SU720951:SU720953 ACQ720951:ACQ720953 D786454:D786456 IY786454:IY786456 SU786454:SU786456 ACQ786454:ACQ786456 D786465:D786467 IY786465:IY786467 SU786465:SU786467 ACQ786465:ACQ786467 D786476:D786478 IY786476:IY786478 SU786476:SU786478 ACQ786476:ACQ786478 D786487:D786489 IY786487:IY786489 SU786487:SU786489 ACQ786487:ACQ786489 D851990:D851992 IY851990:IY851992 SU851990:SU851992 ACQ851990:ACQ851992 D852001:D852003 IY852001:IY852003 SU852001:SU852003 ACQ852001:ACQ852003 D852012:D852014 IY852012:IY852014 SU852012:SU852014 ACQ852012:ACQ852014 D852023:D852025 IY852023:IY852025 SU852023:SU852025 ACQ852023:ACQ852025 D917526:D917528 IY917526:IY917528 SU917526:SU917528 ACQ917526:ACQ917528 D917537:D917539 IY917537:IY917539 SU917537:SU917539 ACQ917537:ACQ917539 D917548:D917550 IY917548:IY917550 SU917548:SU917550 ACQ917548:ACQ917550 D917559:D917561 IY917559:IY917561 SU917559:SU917561 ACQ917559:ACQ917561 D983062:D983064 IY983062:IY983064 SU983062:SU983064 ACQ983062:ACQ983064 D983073:D983075 IY983073:IY983075 SU983073:SU983075 ACQ983073:ACQ983075 D983084:D983086 IY983084:IY983086 SU983084:SU983086 ACQ983084:ACQ983086 D983095:D983097 IY983095:IY983097 SU983095:SU983097 ACQ983095:ACQ983097">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50:D60 IY50:IY60 SU50:SU60 ACQ50:ACQ60 D65558:D65560 IY65558:IY65560 SU65558:SU65560 ACQ65558:ACQ65560 D65569:D65571 IY65569:IY65571 SU65569:SU65571 ACQ65569:ACQ65571 D65580:D65582 IY65580:IY65582 SU65580:SU65582 ACQ65580:ACQ65582 D65591:D65593 IY65591:IY65593 SU65591:SU65593 ACQ65591:ACQ65593 D131094:D131096 IY131094:IY131096 SU131094:SU131096 ACQ131094:ACQ131096 D131105:D131107 IY131105:IY131107 SU131105:SU131107 ACQ131105:ACQ131107 D131116:D131118 IY131116:IY131118 SU131116:SU131118 ACQ131116:ACQ131118 D131127:D131129 IY131127:IY131129 SU131127:SU131129 ACQ131127:ACQ131129 D196630:D196632 IY196630:IY196632 SU196630:SU196632 ACQ196630:ACQ196632 D196641:D196643 IY196641:IY196643 SU196641:SU196643 ACQ196641:ACQ196643 D196652:D196654 IY196652:IY196654 SU196652:SU196654 ACQ196652:ACQ196654 D196663:D196665 IY196663:IY196665 SU196663:SU196665 ACQ196663:ACQ196665 D262166:D262168 IY262166:IY262168 SU262166:SU262168 ACQ262166:ACQ262168 D262177:D262179 IY262177:IY262179 SU262177:SU262179 ACQ262177:ACQ262179 D262188:D262190 IY262188:IY262190 SU262188:SU262190 ACQ262188:ACQ262190 D262199:D262201 IY262199:IY262201 SU262199:SU262201 ACQ262199:ACQ262201 D327702:D327704 IY327702:IY327704 SU327702:SU327704 ACQ327702:ACQ327704 D327713:D327715 IY327713:IY327715 SU327713:SU327715 ACQ327713:ACQ327715 D327724:D327726 IY327724:IY327726 SU327724:SU327726 ACQ327724:ACQ327726 D327735:D327737 IY327735:IY327737 SU327735:SU327737 ACQ327735:ACQ327737 D393238:D393240 IY393238:IY393240 SU393238:SU393240 ACQ393238:ACQ393240 D393249:D393251 IY393249:IY393251 SU393249:SU393251 ACQ393249:ACQ393251 D393260:D393262 IY393260:IY393262 SU393260:SU393262 ACQ393260:ACQ393262 D393271:D393273 IY393271:IY393273 SU393271:SU393273 ACQ393271:ACQ393273 D458774:D458776 IY458774:IY458776 SU458774:SU458776 ACQ458774:ACQ458776 D458785:D458787 IY458785:IY458787 SU458785:SU458787 ACQ458785:ACQ458787 D458796:D458798 IY458796:IY458798 SU458796:SU458798 ACQ458796:ACQ458798 D458807:D458809 IY458807:IY458809 SU458807:SU458809 ACQ458807:ACQ458809 D524310:D524312 IY524310:IY524312 SU524310:SU524312 ACQ524310:ACQ524312 D524321:D524323 IY524321:IY524323 SU524321:SU524323 ACQ524321:ACQ524323 D524332:D524334 IY524332:IY524334 SU524332:SU524334 ACQ524332:ACQ524334 D524343:D524345 IY524343:IY524345 SU524343:SU524345 ACQ524343:ACQ524345 D589846:D589848 IY589846:IY589848 SU589846:SU589848 ACQ589846:ACQ589848 D589857:D589859 IY589857:IY589859 SU589857:SU589859 ACQ589857:ACQ589859 D589868:D589870 IY589868:IY589870 SU589868:SU589870 ACQ589868:ACQ589870 D589879:D589881 IY589879:IY589881 SU589879:SU589881 ACQ589879:ACQ589881 D655382:D655384 IY655382:IY655384 SU655382:SU655384 ACQ655382:ACQ655384 D655393:D655395 IY655393:IY655395 SU655393:SU655395 ACQ655393:ACQ655395 D655404:D655406 IY655404:IY655406 SU655404:SU655406 ACQ655404:ACQ655406 D655415:D655417 IY655415:IY655417 SU655415:SU655417 ACQ655415:ACQ655417 D720918:D720920 IY720918:IY720920 SU720918:SU720920 ACQ720918:ACQ720920 D720929:D720931 IY720929:IY720931 SU720929:SU720931 ACQ720929:ACQ720931 D720940:D720942 IY720940:IY720942 SU720940:SU720942 ACQ720940:ACQ720942 D720951:D720953 IY720951:IY720953 SU720951:SU720953 ACQ720951:ACQ720953 D786454:D786456 IY786454:IY786456 SU786454:SU786456 ACQ786454:ACQ786456 D786465:D786467 IY786465:IY786467 SU786465:SU786467 ACQ786465:ACQ786467 D786476:D786478 IY786476:IY786478 SU786476:SU786478 ACQ786476:ACQ786478 D786487:D786489 IY786487:IY786489 SU786487:SU786489 ACQ786487:ACQ786489 D851990:D851992 IY851990:IY851992 SU851990:SU851992 ACQ851990:ACQ851992 D852001:D852003 IY852001:IY852003 SU852001:SU852003 ACQ852001:ACQ852003 D852012:D852014 IY852012:IY852014 SU852012:SU852014 ACQ852012:ACQ852014 D852023:D852025 IY852023:IY852025 SU852023:SU852025 ACQ852023:ACQ852025 D917526:D917528 IY917526:IY917528 SU917526:SU917528 ACQ917526:ACQ917528 D917537:D917539 IY917537:IY917539 SU917537:SU917539 ACQ917537:ACQ917539 D917548:D917550 IY917548:IY917550 SU917548:SU917550 ACQ917548:ACQ917550 D917559:D917561 IY917559:IY917561 SU917559:SU917561 ACQ917559:ACQ917561 D983062:D983064 IY983062:IY983064 SU983062:SU983064 ACQ983062:ACQ983064 D983073:D983075 IY983073:IY983075 SU983073:SU983075 ACQ983073:ACQ983075 D983084:D983086 IY983084:IY983086 SU983084:SU983086 ACQ983084:ACQ983086 D983095:D983097 IY983095:IY983097 SU983095:SU983097 ACQ983095:ACQ983097" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$D$15:$D$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E60 IZ50:IZ60 SV50:SV60 ACR50:ACR60 E65558:E65560 IZ65558:IZ65560 SV65558:SV65560 ACR65558:ACR65560 E65569:E65571 IZ65569:IZ65571 SV65569:SV65571 ACR65569:ACR65571 E65580:E65582 IZ65580:IZ65582 SV65580:SV65582 ACR65580:ACR65582 E65591:E65593 IZ65591:IZ65593 SV65591:SV65593 ACR65591:ACR65593 E131094:E131096 IZ131094:IZ131096 SV131094:SV131096 ACR131094:ACR131096 E131105:E131107 IZ131105:IZ131107 SV131105:SV131107 ACR131105:ACR131107 E131116:E131118 IZ131116:IZ131118 SV131116:SV131118 ACR131116:ACR131118 E131127:E131129 IZ131127:IZ131129 SV131127:SV131129 ACR131127:ACR131129 E196630:E196632 IZ196630:IZ196632 SV196630:SV196632 ACR196630:ACR196632 E196641:E196643 IZ196641:IZ196643 SV196641:SV196643 ACR196641:ACR196643 E196652:E196654 IZ196652:IZ196654 SV196652:SV196654 ACR196652:ACR196654 E196663:E196665 IZ196663:IZ196665 SV196663:SV196665 ACR196663:ACR196665 E262166:E262168 IZ262166:IZ262168 SV262166:SV262168 ACR262166:ACR262168 E262177:E262179 IZ262177:IZ262179 SV262177:SV262179 ACR262177:ACR262179 E262188:E262190 IZ262188:IZ262190 SV262188:SV262190 ACR262188:ACR262190 E262199:E262201 IZ262199:IZ262201 SV262199:SV262201 ACR262199:ACR262201 E327702:E327704 IZ327702:IZ327704 SV327702:SV327704 ACR327702:ACR327704 E327713:E327715 IZ327713:IZ327715 SV327713:SV327715 ACR327713:ACR327715 E327724:E327726 IZ327724:IZ327726 SV327724:SV327726 ACR327724:ACR327726 E327735:E327737 IZ327735:IZ327737 SV327735:SV327737 ACR327735:ACR327737 E393238:E393240 IZ393238:IZ393240 SV393238:SV393240 ACR393238:ACR393240 E393249:E393251 IZ393249:IZ393251 SV393249:SV393251 ACR393249:ACR393251 E393260:E393262 IZ393260:IZ393262 SV393260:SV393262 ACR393260:ACR393262 E393271:E393273 IZ393271:IZ393273 SV393271:SV393273 ACR393271:ACR393273 E458774:E458776 IZ458774:IZ458776 SV458774:SV458776 ACR458774:ACR458776 E458785:E458787 IZ458785:IZ458787 SV458785:SV458787 ACR458785:ACR458787 E458796:E458798 IZ458796:IZ458798 SV458796:SV458798 ACR458796:ACR458798 E458807:E458809 IZ458807:IZ458809 SV458807:SV458809 ACR458807:ACR458809 E524310:E524312 IZ524310:IZ524312 SV524310:SV524312 ACR524310:ACR524312 E524321:E524323 IZ524321:IZ524323 SV524321:SV524323 ACR524321:ACR524323 E524332:E524334 IZ524332:IZ524334 SV524332:SV524334 ACR524332:ACR524334 E524343:E524345 IZ524343:IZ524345 SV524343:SV524345 ACR524343:ACR524345 E589846:E589848 IZ589846:IZ589848 SV589846:SV589848 ACR589846:ACR589848 E589857:E589859 IZ589857:IZ589859 SV589857:SV589859 ACR589857:ACR589859 E589868:E589870 IZ589868:IZ589870 SV589868:SV589870 ACR589868:ACR589870 E589879:E589881 IZ589879:IZ589881 SV589879:SV589881 ACR589879:ACR589881 E655382:E655384 IZ655382:IZ655384 SV655382:SV655384 ACR655382:ACR655384 E655393:E655395 IZ655393:IZ655395 SV655393:SV655395 ACR655393:ACR655395 E655404:E655406 IZ655404:IZ655406 SV655404:SV655406 ACR655404:ACR655406 E655415:E655417 IZ655415:IZ655417 SV655415:SV655417 ACR655415:ACR655417 E720918:E720920 IZ720918:IZ720920 SV720918:SV720920 ACR720918:ACR720920 E720929:E720931 IZ720929:IZ720931 SV720929:SV720931 ACR720929:ACR720931 E720940:E720942 IZ720940:IZ720942 SV720940:SV720942 ACR720940:ACR720942 E720951:E720953 IZ720951:IZ720953 SV720951:SV720953 ACR720951:ACR720953 E786454:E786456 IZ786454:IZ786456 SV786454:SV786456 ACR786454:ACR786456 E786465:E786467 IZ786465:IZ786467 SV786465:SV786467 ACR786465:ACR786467 E786476:E786478 IZ786476:IZ786478 SV786476:SV786478 ACR786476:ACR786478 E786487:E786489 IZ786487:IZ786489 SV786487:SV786489 ACR786487:ACR786489 E851990:E851992 IZ851990:IZ851992 SV851990:SV851992 ACR851990:ACR851992 E852001:E852003 IZ852001:IZ852003 SV852001:SV852003 ACR852001:ACR852003 E852012:E852014 IZ852012:IZ852014 SV852012:SV852014 ACR852012:ACR852014 E852023:E852025 IZ852023:IZ852025 SV852023:SV852025 ACR852023:ACR852025 E917526:E917528 IZ917526:IZ917528 SV917526:SV917528 ACR917526:ACR917528 E917537:E917539 IZ917537:IZ917539 SV917537:SV917539 ACR917537:ACR917539 E917548:E917550 IZ917548:IZ917550 SV917548:SV917550 ACR917548:ACR917550 E917559:E917561 IZ917559:IZ917561 SV917559:SV917561 ACR917559:ACR917561 E983062:E983064 IZ983062:IZ983064 SV983062:SV983064 ACR983062:ACR983064 E983073:E983075 IZ983073:IZ983075 SV983073:SV983075 ACR983073:ACR983075 E983084:E983086 IZ983084:IZ983086 SV983084:SV983086 ACR983084:ACR983086 E983095:E983097 IZ983095:IZ983097 SV983095:SV983097 ACR983095:ACR983097">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E60 IZ50:IZ60 SV50:SV60 ACR50:ACR60 E65558:E65560 IZ65558:IZ65560 SV65558:SV65560 ACR65558:ACR65560 E65569:E65571 IZ65569:IZ65571 SV65569:SV65571 ACR65569:ACR65571 E65580:E65582 IZ65580:IZ65582 SV65580:SV65582 ACR65580:ACR65582 E65591:E65593 IZ65591:IZ65593 SV65591:SV65593 ACR65591:ACR65593 E131094:E131096 IZ131094:IZ131096 SV131094:SV131096 ACR131094:ACR131096 E131105:E131107 IZ131105:IZ131107 SV131105:SV131107 ACR131105:ACR131107 E131116:E131118 IZ131116:IZ131118 SV131116:SV131118 ACR131116:ACR131118 E131127:E131129 IZ131127:IZ131129 SV131127:SV131129 ACR131127:ACR131129 E196630:E196632 IZ196630:IZ196632 SV196630:SV196632 ACR196630:ACR196632 E196641:E196643 IZ196641:IZ196643 SV196641:SV196643 ACR196641:ACR196643 E196652:E196654 IZ196652:IZ196654 SV196652:SV196654 ACR196652:ACR196654 E196663:E196665 IZ196663:IZ196665 SV196663:SV196665 ACR196663:ACR196665 E262166:E262168 IZ262166:IZ262168 SV262166:SV262168 ACR262166:ACR262168 E262177:E262179 IZ262177:IZ262179 SV262177:SV262179 ACR262177:ACR262179 E262188:E262190 IZ262188:IZ262190 SV262188:SV262190 ACR262188:ACR262190 E262199:E262201 IZ262199:IZ262201 SV262199:SV262201 ACR262199:ACR262201 E327702:E327704 IZ327702:IZ327704 SV327702:SV327704 ACR327702:ACR327704 E327713:E327715 IZ327713:IZ327715 SV327713:SV327715 ACR327713:ACR327715 E327724:E327726 IZ327724:IZ327726 SV327724:SV327726 ACR327724:ACR327726 E327735:E327737 IZ327735:IZ327737 SV327735:SV327737 ACR327735:ACR327737 E393238:E393240 IZ393238:IZ393240 SV393238:SV393240 ACR393238:ACR393240 E393249:E393251 IZ393249:IZ393251 SV393249:SV393251 ACR393249:ACR393251 E393260:E393262 IZ393260:IZ393262 SV393260:SV393262 ACR393260:ACR393262 E393271:E393273 IZ393271:IZ393273 SV393271:SV393273 ACR393271:ACR393273 E458774:E458776 IZ458774:IZ458776 SV458774:SV458776 ACR458774:ACR458776 E458785:E458787 IZ458785:IZ458787 SV458785:SV458787 ACR458785:ACR458787 E458796:E458798 IZ458796:IZ458798 SV458796:SV458798 ACR458796:ACR458798 E458807:E458809 IZ458807:IZ458809 SV458807:SV458809 ACR458807:ACR458809 E524310:E524312 IZ524310:IZ524312 SV524310:SV524312 ACR524310:ACR524312 E524321:E524323 IZ524321:IZ524323 SV524321:SV524323 ACR524321:ACR524323 E524332:E524334 IZ524332:IZ524334 SV524332:SV524334 ACR524332:ACR524334 E524343:E524345 IZ524343:IZ524345 SV524343:SV524345 ACR524343:ACR524345 E589846:E589848 IZ589846:IZ589848 SV589846:SV589848 ACR589846:ACR589848 E589857:E589859 IZ589857:IZ589859 SV589857:SV589859 ACR589857:ACR589859 E589868:E589870 IZ589868:IZ589870 SV589868:SV589870 ACR589868:ACR589870 E589879:E589881 IZ589879:IZ589881 SV589879:SV589881 ACR589879:ACR589881 E655382:E655384 IZ655382:IZ655384 SV655382:SV655384 ACR655382:ACR655384 E655393:E655395 IZ655393:IZ655395 SV655393:SV655395 ACR655393:ACR655395 E655404:E655406 IZ655404:IZ655406 SV655404:SV655406 ACR655404:ACR655406 E655415:E655417 IZ655415:IZ655417 SV655415:SV655417 ACR655415:ACR655417 E720918:E720920 IZ720918:IZ720920 SV720918:SV720920 ACR720918:ACR720920 E720929:E720931 IZ720929:IZ720931 SV720929:SV720931 ACR720929:ACR720931 E720940:E720942 IZ720940:IZ720942 SV720940:SV720942 ACR720940:ACR720942 E720951:E720953 IZ720951:IZ720953 SV720951:SV720953 ACR720951:ACR720953 E786454:E786456 IZ786454:IZ786456 SV786454:SV786456 ACR786454:ACR786456 E786465:E786467 IZ786465:IZ786467 SV786465:SV786467 ACR786465:ACR786467 E786476:E786478 IZ786476:IZ786478 SV786476:SV786478 ACR786476:ACR786478 E786487:E786489 IZ786487:IZ786489 SV786487:SV786489 ACR786487:ACR786489 E851990:E851992 IZ851990:IZ851992 SV851990:SV851992 ACR851990:ACR851992 E852001:E852003 IZ852001:IZ852003 SV852001:SV852003 ACR852001:ACR852003 E852012:E852014 IZ852012:IZ852014 SV852012:SV852014 ACR852012:ACR852014 E852023:E852025 IZ852023:IZ852025 SV852023:SV852025 ACR852023:ACR852025 E917526:E917528 IZ917526:IZ917528 SV917526:SV917528 ACR917526:ACR917528 E917537:E917539 IZ917537:IZ917539 SV917537:SV917539 ACR917537:ACR917539 E917548:E917550 IZ917548:IZ917550 SV917548:SV917550 ACR917548:ACR917550 E917559:E917561 IZ917559:IZ917561 SV917559:SV917561 ACR917559:ACR917561 E983062:E983064 IZ983062:IZ983064 SV983062:SV983064 ACR983062:ACR983064 E983073:E983075 IZ983073:IZ983075 SV983073:SV983075 ACR983073:ACR983075 E983084:E983086 IZ983084:IZ983086 SV983084:SV983086 ACR983084:ACR983086 E983095:E983097 IZ983095:IZ983097 SV983095:SV983097 ACR983095:ACR983097" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>$D$19:$D$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G60 JB50:JB60 SX50:SX60 ACT50:ACT60 G65558:G65560 JB65558:JB65560 SX65558:SX65560 ACT65558:ACT65560 G65569:G65571 JB65569:JB65571 SX65569:SX65571 ACT65569:ACT65571 G65580:G65582 JB65580:JB65582 SX65580:SX65582 ACT65580:ACT65582 G65591:G65593 JB65591:JB65593 SX65591:SX65593 ACT65591:ACT65593 G131094:G131096 JB131094:JB131096 SX131094:SX131096 ACT131094:ACT131096 G131105:G131107 JB131105:JB131107 SX131105:SX131107 ACT131105:ACT131107 G131116:G131118 JB131116:JB131118 SX131116:SX131118 ACT131116:ACT131118 G131127:G131129 JB131127:JB131129 SX131127:SX131129 ACT131127:ACT131129 G196630:G196632 JB196630:JB196632 SX196630:SX196632 ACT196630:ACT196632 G196641:G196643 JB196641:JB196643 SX196641:SX196643 ACT196641:ACT196643 G196652:G196654 JB196652:JB196654 SX196652:SX196654 ACT196652:ACT196654 G196663:G196665 JB196663:JB196665 SX196663:SX196665 ACT196663:ACT196665 G262166:G262168 JB262166:JB262168 SX262166:SX262168 ACT262166:ACT262168 G262177:G262179 JB262177:JB262179 SX262177:SX262179 ACT262177:ACT262179 G262188:G262190 JB262188:JB262190 SX262188:SX262190 ACT262188:ACT262190 G262199:G262201 JB262199:JB262201 SX262199:SX262201 ACT262199:ACT262201 G327702:G327704 JB327702:JB327704 SX327702:SX327704 ACT327702:ACT327704 G327713:G327715 JB327713:JB327715 SX327713:SX327715 ACT327713:ACT327715 G327724:G327726 JB327724:JB327726 SX327724:SX327726 ACT327724:ACT327726 G327735:G327737 JB327735:JB327737 SX327735:SX327737 ACT327735:ACT327737 G393238:G393240 JB393238:JB393240 SX393238:SX393240 ACT393238:ACT393240 G393249:G393251 JB393249:JB393251 SX393249:SX393251 ACT393249:ACT393251 G393260:G393262 JB393260:JB393262 SX393260:SX393262 ACT393260:ACT393262 G393271:G393273 JB393271:JB393273 SX393271:SX393273 ACT393271:ACT393273 G458774:G458776 JB458774:JB458776 SX458774:SX458776 ACT458774:ACT458776 G458785:G458787 JB458785:JB458787 SX458785:SX458787 ACT458785:ACT458787 G458796:G458798 JB458796:JB458798 SX458796:SX458798 ACT458796:ACT458798 G458807:G458809 JB458807:JB458809 SX458807:SX458809 ACT458807:ACT458809 G524310:G524312 JB524310:JB524312 SX524310:SX524312 ACT524310:ACT524312 G524321:G524323 JB524321:JB524323 SX524321:SX524323 ACT524321:ACT524323 G524332:G524334 JB524332:JB524334 SX524332:SX524334 ACT524332:ACT524334 G524343:G524345 JB524343:JB524345 SX524343:SX524345 ACT524343:ACT524345 G589846:G589848 JB589846:JB589848 SX589846:SX589848 ACT589846:ACT589848 G589857:G589859 JB589857:JB589859 SX589857:SX589859 ACT589857:ACT589859 G589868:G589870 JB589868:JB589870 SX589868:SX589870 ACT589868:ACT589870 G589879:G589881 JB589879:JB589881 SX589879:SX589881 ACT589879:ACT589881 G655382:G655384 JB655382:JB655384 SX655382:SX655384 ACT655382:ACT655384 G655393:G655395 JB655393:JB655395 SX655393:SX655395 ACT655393:ACT655395 G655404:G655406 JB655404:JB655406 SX655404:SX655406 ACT655404:ACT655406 G655415:G655417 JB655415:JB655417 SX655415:SX655417 ACT655415:ACT655417 G720918:G720920 JB720918:JB720920 SX720918:SX720920 ACT720918:ACT720920 G720929:G720931 JB720929:JB720931 SX720929:SX720931 ACT720929:ACT720931 G720940:G720942 JB720940:JB720942 SX720940:SX720942 ACT720940:ACT720942 G720951:G720953 JB720951:JB720953 SX720951:SX720953 ACT720951:ACT720953 G786454:G786456 JB786454:JB786456 SX786454:SX786456 ACT786454:ACT786456 G786465:G786467 JB786465:JB786467 SX786465:SX786467 ACT786465:ACT786467 G786476:G786478 JB786476:JB786478 SX786476:SX786478 ACT786476:ACT786478 G786487:G786489 JB786487:JB786489 SX786487:SX786489 ACT786487:ACT786489 G851990:G851992 JB851990:JB851992 SX851990:SX851992 ACT851990:ACT851992 G852001:G852003 JB852001:JB852003 SX852001:SX852003 ACT852001:ACT852003 G852012:G852014 JB852012:JB852014 SX852012:SX852014 ACT852012:ACT852014 G852023:G852025 JB852023:JB852025 SX852023:SX852025 ACT852023:ACT852025 G917526:G917528 JB917526:JB917528 SX917526:SX917528 ACT917526:ACT917528 G917537:G917539 JB917537:JB917539 SX917537:SX917539 ACT917537:ACT917539 G917548:G917550 JB917548:JB917550 SX917548:SX917550 ACT917548:ACT917550 G917559:G917561 JB917559:JB917561 SX917559:SX917561 ACT917559:ACT917561 G983062:G983064 JB983062:JB983064 SX983062:SX983064 ACT983062:ACT983064 G983073:G983075 JB983073:JB983075 SX983073:SX983075 ACT983073:ACT983075 G983084:G983086 JB983084:JB983086 SX983084:SX983086 ACT983084:ACT983086 G983095:G983097 JB983095:JB983097 SX983095:SX983097 ACT983095:ACT983097">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G50:G60 JB50:JB60 SX50:SX60 ACT50:ACT60 G65558:G65560 JB65558:JB65560 SX65558:SX65560 ACT65558:ACT65560 G65569:G65571 JB65569:JB65571 SX65569:SX65571 ACT65569:ACT65571 G65580:G65582 JB65580:JB65582 SX65580:SX65582 ACT65580:ACT65582 G65591:G65593 JB65591:JB65593 SX65591:SX65593 ACT65591:ACT65593 G131094:G131096 JB131094:JB131096 SX131094:SX131096 ACT131094:ACT131096 G131105:G131107 JB131105:JB131107 SX131105:SX131107 ACT131105:ACT131107 G131116:G131118 JB131116:JB131118 SX131116:SX131118 ACT131116:ACT131118 G131127:G131129 JB131127:JB131129 SX131127:SX131129 ACT131127:ACT131129 G196630:G196632 JB196630:JB196632 SX196630:SX196632 ACT196630:ACT196632 G196641:G196643 JB196641:JB196643 SX196641:SX196643 ACT196641:ACT196643 G196652:G196654 JB196652:JB196654 SX196652:SX196654 ACT196652:ACT196654 G196663:G196665 JB196663:JB196665 SX196663:SX196665 ACT196663:ACT196665 G262166:G262168 JB262166:JB262168 SX262166:SX262168 ACT262166:ACT262168 G262177:G262179 JB262177:JB262179 SX262177:SX262179 ACT262177:ACT262179 G262188:G262190 JB262188:JB262190 SX262188:SX262190 ACT262188:ACT262190 G262199:G262201 JB262199:JB262201 SX262199:SX262201 ACT262199:ACT262201 G327702:G327704 JB327702:JB327704 SX327702:SX327704 ACT327702:ACT327704 G327713:G327715 JB327713:JB327715 SX327713:SX327715 ACT327713:ACT327715 G327724:G327726 JB327724:JB327726 SX327724:SX327726 ACT327724:ACT327726 G327735:G327737 JB327735:JB327737 SX327735:SX327737 ACT327735:ACT327737 G393238:G393240 JB393238:JB393240 SX393238:SX393240 ACT393238:ACT393240 G393249:G393251 JB393249:JB393251 SX393249:SX393251 ACT393249:ACT393251 G393260:G393262 JB393260:JB393262 SX393260:SX393262 ACT393260:ACT393262 G393271:G393273 JB393271:JB393273 SX393271:SX393273 ACT393271:ACT393273 G458774:G458776 JB458774:JB458776 SX458774:SX458776 ACT458774:ACT458776 G458785:G458787 JB458785:JB458787 SX458785:SX458787 ACT458785:ACT458787 G458796:G458798 JB458796:JB458798 SX458796:SX458798 ACT458796:ACT458798 G458807:G458809 JB458807:JB458809 SX458807:SX458809 ACT458807:ACT458809 G524310:G524312 JB524310:JB524312 SX524310:SX524312 ACT524310:ACT524312 G524321:G524323 JB524321:JB524323 SX524321:SX524323 ACT524321:ACT524323 G524332:G524334 JB524332:JB524334 SX524332:SX524334 ACT524332:ACT524334 G524343:G524345 JB524343:JB524345 SX524343:SX524345 ACT524343:ACT524345 G589846:G589848 JB589846:JB589848 SX589846:SX589848 ACT589846:ACT589848 G589857:G589859 JB589857:JB589859 SX589857:SX589859 ACT589857:ACT589859 G589868:G589870 JB589868:JB589870 SX589868:SX589870 ACT589868:ACT589870 G589879:G589881 JB589879:JB589881 SX589879:SX589881 ACT589879:ACT589881 G655382:G655384 JB655382:JB655384 SX655382:SX655384 ACT655382:ACT655384 G655393:G655395 JB655393:JB655395 SX655393:SX655395 ACT655393:ACT655395 G655404:G655406 JB655404:JB655406 SX655404:SX655406 ACT655404:ACT655406 G655415:G655417 JB655415:JB655417 SX655415:SX655417 ACT655415:ACT655417 G720918:G720920 JB720918:JB720920 SX720918:SX720920 ACT720918:ACT720920 G720929:G720931 JB720929:JB720931 SX720929:SX720931 ACT720929:ACT720931 G720940:G720942 JB720940:JB720942 SX720940:SX720942 ACT720940:ACT720942 G720951:G720953 JB720951:JB720953 SX720951:SX720953 ACT720951:ACT720953 G786454:G786456 JB786454:JB786456 SX786454:SX786456 ACT786454:ACT786456 G786465:G786467 JB786465:JB786467 SX786465:SX786467 ACT786465:ACT786467 G786476:G786478 JB786476:JB786478 SX786476:SX786478 ACT786476:ACT786478 G786487:G786489 JB786487:JB786489 SX786487:SX786489 ACT786487:ACT786489 G851990:G851992 JB851990:JB851992 SX851990:SX851992 ACT851990:ACT851992 G852001:G852003 JB852001:JB852003 SX852001:SX852003 ACT852001:ACT852003 G852012:G852014 JB852012:JB852014 SX852012:SX852014 ACT852012:ACT852014 G852023:G852025 JB852023:JB852025 SX852023:SX852025 ACT852023:ACT852025 G917526:G917528 JB917526:JB917528 SX917526:SX917528 ACT917526:ACT917528 G917537:G917539 JB917537:JB917539 SX917537:SX917539 ACT917537:ACT917539 G917548:G917550 JB917548:JB917550 SX917548:SX917550 ACT917548:ACT917550 G917559:G917561 JB917559:JB917561 SX917559:SX917561 ACT917559:ACT917561 G983062:G983064 JB983062:JB983064 SX983062:SX983064 ACT983062:ACT983064 G983073:G983075 JB983073:JB983075 SX983073:SX983075 ACT983073:ACT983075 G983084:G983086 JB983084:JB983086 SX983084:SX983086 ACT983084:ACT983086 G983095:G983097 JB983095:JB983097 SX983095:SX983097 ACT983095:ACT983097" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>$D$23:$D$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65554:I65554 JC65554:JD65554 SY65554:SZ65554 ACU65554:ACV65554 H65565:I65565 JC65565:JD65565 SY65565:SZ65565 ACU65565:ACV65565 H65576:I65576 JC65576:JD65576 SY65576:SZ65576 ACU65576:ACV65576 H65587:I65587 JC65587:JD65587 SY65587:SZ65587 ACU65587:ACV65587 H131090:I131090 JC131090:JD131090 SY131090:SZ131090 ACU131090:ACV131090 H131101:I131101 JC131101:JD131101 SY131101:SZ131101 ACU131101:ACV131101 H131112:I131112 JC131112:JD131112 SY131112:SZ131112 ACU131112:ACV131112 H131123:I131123 JC131123:JD131123 SY131123:SZ131123 ACU131123:ACV131123 H196626:I196626 JC196626:JD196626 SY196626:SZ196626 ACU196626:ACV196626 H196637:I196637 JC196637:JD196637 SY196637:SZ196637 ACU196637:ACV196637 H196648:I196648 JC196648:JD196648 SY196648:SZ196648 ACU196648:ACV196648 H196659:I196659 JC196659:JD196659 SY196659:SZ196659 ACU196659:ACV196659 H262162:I262162 JC262162:JD262162 SY262162:SZ262162 ACU262162:ACV262162 H262173:I262173 JC262173:JD262173 SY262173:SZ262173 ACU262173:ACV262173 H262184:I262184 JC262184:JD262184 SY262184:SZ262184 ACU262184:ACV262184 H262195:I262195 JC262195:JD262195 SY262195:SZ262195 ACU262195:ACV262195 H327698:I327698 JC327698:JD327698 SY327698:SZ327698 ACU327698:ACV327698 H327709:I327709 JC327709:JD327709 SY327709:SZ327709 ACU327709:ACV327709 H327720:I327720 JC327720:JD327720 SY327720:SZ327720 ACU327720:ACV327720 H327731:I327731 JC327731:JD327731 SY327731:SZ327731 ACU327731:ACV327731 H393234:I393234 JC393234:JD393234 SY393234:SZ393234 ACU393234:ACV393234 H393245:I393245 JC393245:JD393245 SY393245:SZ393245 ACU393245:ACV393245 H393256:I393256 JC393256:JD393256 SY393256:SZ393256 ACU393256:ACV393256 H393267:I393267 JC393267:JD393267 SY393267:SZ393267 ACU393267:ACV393267 H458770:I458770 JC458770:JD458770 SY458770:SZ458770 ACU458770:ACV458770 H458781:I458781 JC458781:JD458781 SY458781:SZ458781 ACU458781:ACV458781 H458792:I458792 JC458792:JD458792 SY458792:SZ458792 ACU458792:ACV458792 H458803:I458803 JC458803:JD458803 SY458803:SZ458803 ACU458803:ACV458803 H524306:I524306 JC524306:JD524306 SY524306:SZ524306 ACU524306:ACV524306 H524317:I524317 JC524317:JD524317 SY524317:SZ524317 ACU524317:ACV524317 H524328:I524328 JC524328:JD524328 SY524328:SZ524328 ACU524328:ACV524328 H524339:I524339 JC524339:JD524339 SY524339:SZ524339 ACU524339:ACV524339 H589842:I589842 JC589842:JD589842 SY589842:SZ589842 ACU589842:ACV589842 H589853:I589853 JC589853:JD589853 SY589853:SZ589853 ACU589853:ACV589853 H589864:I589864 JC589864:JD589864 SY589864:SZ589864 ACU589864:ACV589864 H589875:I589875 JC589875:JD589875 SY589875:SZ589875 ACU589875:ACV589875 H655378:I655378 JC655378:JD655378 SY655378:SZ655378 ACU655378:ACV655378 H655389:I655389 JC655389:JD655389 SY655389:SZ655389 ACU655389:ACV655389 H655400:I655400 JC655400:JD655400 SY655400:SZ655400 ACU655400:ACV655400 H655411:I655411 JC655411:JD655411 SY655411:SZ655411 ACU655411:ACV655411 H720914:I720914 JC720914:JD720914 SY720914:SZ720914 ACU720914:ACV720914 H720925:I720925 JC720925:JD720925 SY720925:SZ720925 ACU720925:ACV720925 H720936:I720936 JC720936:JD720936 SY720936:SZ720936 ACU720936:ACV720936 H720947:I720947 JC720947:JD720947 SY720947:SZ720947 ACU720947:ACV720947 H786450:I786450 JC786450:JD786450 SY786450:SZ786450 ACU786450:ACV786450 H786461:I786461 JC786461:JD786461 SY786461:SZ786461 ACU786461:ACV786461 H786472:I786472 JC786472:JD786472 SY786472:SZ786472 ACU786472:ACV786472 H786483:I786483 JC786483:JD786483 SY786483:SZ786483 ACU786483:ACV786483 H851986:I851986 JC851986:JD851986 SY851986:SZ851986 ACU851986:ACV851986 H851997:I851997 JC851997:JD851997 SY851997:SZ851997 ACU851997:ACV851997 H852008:I852008 JC852008:JD852008 SY852008:SZ852008 ACU852008:ACV852008 H852019:I852019 JC852019:JD852019 SY852019:SZ852019 ACU852019:ACV852019 H917522:I917522 JC917522:JD917522 SY917522:SZ917522 ACU917522:ACV917522 H917533:I917533 JC917533:JD917533 SY917533:SZ917533 ACU917533:ACV917533 H917544:I917544 JC917544:JD917544 SY917544:SZ917544 ACU917544:ACV917544 H917555:I917555 JC917555:JD917555 SY917555:SZ917555 ACU917555:ACV917555 H983058:I983058 JC983058:JD983058 SY983058:SZ983058 ACU983058:ACV983058 H983069:I983069 JC983069:JD983069 SY983069:SZ983069 ACU983069:ACV983069 H983080:I983080 JC983080:JD983080 SY983080:SZ983080 ACU983080:ACV983080 H983091:I983091 JC983091:JD983091 SY983091:SZ983091 ACU983091:ACV983091">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65554:I65554 JC65554:JD65554 SY65554:SZ65554 ACU65554:ACV65554 H65565:I65565 JC65565:JD65565 SY65565:SZ65565 ACU65565:ACV65565 H65576:I65576 JC65576:JD65576 SY65576:SZ65576 ACU65576:ACV65576 H65587:I65587 JC65587:JD65587 SY65587:SZ65587 ACU65587:ACV65587 H131090:I131090 JC131090:JD131090 SY131090:SZ131090 ACU131090:ACV131090 H131101:I131101 JC131101:JD131101 SY131101:SZ131101 ACU131101:ACV131101 H131112:I131112 JC131112:JD131112 SY131112:SZ131112 ACU131112:ACV131112 H131123:I131123 JC131123:JD131123 SY131123:SZ131123 ACU131123:ACV131123 H196626:I196626 JC196626:JD196626 SY196626:SZ196626 ACU196626:ACV196626 H196637:I196637 JC196637:JD196637 SY196637:SZ196637 ACU196637:ACV196637 H196648:I196648 JC196648:JD196648 SY196648:SZ196648 ACU196648:ACV196648 H196659:I196659 JC196659:JD196659 SY196659:SZ196659 ACU196659:ACV196659 H262162:I262162 JC262162:JD262162 SY262162:SZ262162 ACU262162:ACV262162 H262173:I262173 JC262173:JD262173 SY262173:SZ262173 ACU262173:ACV262173 H262184:I262184 JC262184:JD262184 SY262184:SZ262184 ACU262184:ACV262184 H262195:I262195 JC262195:JD262195 SY262195:SZ262195 ACU262195:ACV262195 H327698:I327698 JC327698:JD327698 SY327698:SZ327698 ACU327698:ACV327698 H327709:I327709 JC327709:JD327709 SY327709:SZ327709 ACU327709:ACV327709 H327720:I327720 JC327720:JD327720 SY327720:SZ327720 ACU327720:ACV327720 H327731:I327731 JC327731:JD327731 SY327731:SZ327731 ACU327731:ACV327731 H393234:I393234 JC393234:JD393234 SY393234:SZ393234 ACU393234:ACV393234 H393245:I393245 JC393245:JD393245 SY393245:SZ393245 ACU393245:ACV393245 H393256:I393256 JC393256:JD393256 SY393256:SZ393256 ACU393256:ACV393256 H393267:I393267 JC393267:JD393267 SY393267:SZ393267 ACU393267:ACV393267 H458770:I458770 JC458770:JD458770 SY458770:SZ458770 ACU458770:ACV458770 H458781:I458781 JC458781:JD458781 SY458781:SZ458781 ACU458781:ACV458781 H458792:I458792 JC458792:JD458792 SY458792:SZ458792 ACU458792:ACV458792 H458803:I458803 JC458803:JD458803 SY458803:SZ458803 ACU458803:ACV458803 H524306:I524306 JC524306:JD524306 SY524306:SZ524306 ACU524306:ACV524306 H524317:I524317 JC524317:JD524317 SY524317:SZ524317 ACU524317:ACV524317 H524328:I524328 JC524328:JD524328 SY524328:SZ524328 ACU524328:ACV524328 H524339:I524339 JC524339:JD524339 SY524339:SZ524339 ACU524339:ACV524339 H589842:I589842 JC589842:JD589842 SY589842:SZ589842 ACU589842:ACV589842 H589853:I589853 JC589853:JD589853 SY589853:SZ589853 ACU589853:ACV589853 H589864:I589864 JC589864:JD589864 SY589864:SZ589864 ACU589864:ACV589864 H589875:I589875 JC589875:JD589875 SY589875:SZ589875 ACU589875:ACV589875 H655378:I655378 JC655378:JD655378 SY655378:SZ655378 ACU655378:ACV655378 H655389:I655389 JC655389:JD655389 SY655389:SZ655389 ACU655389:ACV655389 H655400:I655400 JC655400:JD655400 SY655400:SZ655400 ACU655400:ACV655400 H655411:I655411 JC655411:JD655411 SY655411:SZ655411 ACU655411:ACV655411 H720914:I720914 JC720914:JD720914 SY720914:SZ720914 ACU720914:ACV720914 H720925:I720925 JC720925:JD720925 SY720925:SZ720925 ACU720925:ACV720925 H720936:I720936 JC720936:JD720936 SY720936:SZ720936 ACU720936:ACV720936 H720947:I720947 JC720947:JD720947 SY720947:SZ720947 ACU720947:ACV720947 H786450:I786450 JC786450:JD786450 SY786450:SZ786450 ACU786450:ACV786450 H786461:I786461 JC786461:JD786461 SY786461:SZ786461 ACU786461:ACV786461 H786472:I786472 JC786472:JD786472 SY786472:SZ786472 ACU786472:ACV786472 H786483:I786483 JC786483:JD786483 SY786483:SZ786483 ACU786483:ACV786483 H851986:I851986 JC851986:JD851986 SY851986:SZ851986 ACU851986:ACV851986 H851997:I851997 JC851997:JD851997 SY851997:SZ851997 ACU851997:ACV851997 H852008:I852008 JC852008:JD852008 SY852008:SZ852008 ACU852008:ACV852008 H852019:I852019 JC852019:JD852019 SY852019:SZ852019 ACU852019:ACV852019 H917522:I917522 JC917522:JD917522 SY917522:SZ917522 ACU917522:ACV917522 H917533:I917533 JC917533:JD917533 SY917533:SZ917533 ACU917533:ACV917533 H917544:I917544 JC917544:JD917544 SY917544:SZ917544 ACU917544:ACV917544 H917555:I917555 JC917555:JD917555 SY917555:SZ917555 ACU917555:ACV917555 H983058:I983058 JC983058:JD983058 SY983058:SZ983058 ACU983058:ACV983058 H983069:I983069 JC983069:JD983069 SY983069:SZ983069 ACU983069:ACV983069 H983080:I983080 JC983080:JD983080 SY983080:SZ983080 ACU983080:ACV983080 H983091:I983091 JC983091:JD983091 SY983091:SZ983091 ACU983091:ACV983091" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$D$4:$D$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -10864,7 +10865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11336,10 +11337,10 @@
     <mergeCell ref="M7:N7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B20 E9:E20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Simples,Média,Complexa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9:N22" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11352,7 +11353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CHP/6.Gerenciamento de Projeto/CHP - Planejamento e Controle do Projeto.xlsx
+++ b/CHP/6.Gerenciamento de Projeto/CHP - Planejamento e Controle do Projeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Alonso\Desktop\CHP\chamado-pro\CHP\6.Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5056C-5AC5-4A16-9454-C8F099CAE1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713EE6F9-6FE0-4C67-B5E4-7E3CEE06D155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4725,7 +4725,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="251">
   <si>
     <t>Equipe</t>
   </si>
@@ -4834,9 +4834,6 @@
   </si>
   <si>
     <t>Modelar,implementar e testar a arquitetura</t>
-  </si>
-  <si>
-    <t>Criar Guia de Implementação</t>
   </si>
   <si>
     <t>Implementar e testar a arquitetura</t>
@@ -5565,6 +5562,12 @@
   </si>
   <si>
     <t>UC Manter Chamado e UC Consultar Chamado</t>
+  </si>
+  <si>
+    <t>Detalhar Requisitos</t>
+  </si>
+  <si>
+    <t>Definir arquitetura</t>
   </si>
 </sst>
 </file>
@@ -6513,6 +6516,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6521,18 +6536,6 @@
     <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6550,6 +6553,21 @@
     </xf>
     <xf numFmtId="164" fontId="28" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6564,21 +6582,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="31" fillId="15" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6709,7 +6712,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>750960</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>67318</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3725997" cy="1047957"/>
@@ -8513,7 +8516,7 @@
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="132"/>
       <c r="C2" s="132"/>
@@ -8534,10 +8537,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -8545,10 +8548,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="122" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8556,10 +8559,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="122" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8567,10 +8570,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" s="122" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8578,10 +8581,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="122" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -8650,10 +8653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ46"/>
+  <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8673,38 +8676,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="F1" s="136" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="F1" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="F2" s="138" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="F2" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8725,20 +8728,20 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H5" s="15">
         <v>10</v>
@@ -8817,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" s="15">
         <v>10</v>
@@ -8853,7 +8856,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H7" s="15">
         <v>5</v>
@@ -8889,7 +8892,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="15">
         <v>5</v>
@@ -8904,7 +8907,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" ref="L8:L18" si="0">SUM(H8:K8)</f>
+        <f t="shared" ref="L8:L19" si="0">SUM(H8:K8)</f>
         <v>10</v>
       </c>
     </row>
@@ -8925,7 +8928,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H9" s="15">
         <v>5</v>
@@ -8971,11 +8974,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="8">
         <f>SUM(D5:D10)</f>
         <v>24</v>
@@ -9075,7 +9078,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="13">
         <v>15</v>
@@ -9123,10 +9126,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="D17" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="12"/>
@@ -9140,17 +9143,13 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>13</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="18" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="D18" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="12"/>
@@ -9158,39 +9157,41 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="16">
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="13">
+        <v>6</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>14</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="13">
-        <v>4</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-    </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="13">
         <v>4</v>
@@ -9201,15 +9202,18 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="133" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="8">
-        <f>SUM(D12:D20)</f>
-        <v>59</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="13">
+        <v>4</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -9217,18 +9221,15 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="13">
-        <v>4</v>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="8">
+        <f>SUM(D12:D21)</f>
+        <v>61</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -9236,71 +9237,76 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>233</v>
+        <v>39</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="13">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>236</v>
+        <v>39</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="D24" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D25" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>234</v>
       </c>
       <c r="D26" s="13">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>238</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="D27" s="13">
         <v>12</v>
@@ -9308,69 +9314,69 @@
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>239</v>
+        <v>39</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="D28" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>240</v>
+        <v>39</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>238</v>
       </c>
       <c r="D29" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>241</v>
+        <v>39</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="D30" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>242</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="D31" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>243</v>
+        <v>39</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="D32" s="13">
         <v>6</v>
@@ -9378,80 +9384,80 @@
     </row>
     <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="D33" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="8">
-        <f>SUM(D22:D34)</f>
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>22</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="8">
+        <f>SUM(D23:D35)</f>
         <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>23</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="13">
-        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="D38" s="13">
         <v>6</v>
@@ -9459,41 +9465,41 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="13">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="D40" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" s="13">
         <v>4</v>
@@ -9501,13 +9507,13 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="13">
         <v>4</v>
@@ -9515,13 +9521,13 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" s="13">
         <v>4</v>
@@ -9529,45 +9535,59 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
-        <v>31</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D44" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="134"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="8">
-        <f>SUM(D36:D44)</f>
+    <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>31</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="138"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="8">
+        <f>SUM(D37:D45)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D46" s="24">
-        <f>SUM(D11,D21,D35,D45)</f>
-        <v>251</v>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D47" s="24">
+        <f>SUM(D11,D22,D36,D46)</f>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9596,7 +9616,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="140"/>
       <c r="C1" s="140"/>
@@ -9604,40 +9624,40 @@
     <row r="2" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="141"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="27">
+        <f>Backlog_Produto!$D$47</f>
+        <v>253</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="27">
-        <f>Backlog_Produto!$D$46</f>
-        <v>251</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="29">
         <v>0.5</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="31">
         <v>5</v>
@@ -9646,85 +9666,85 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="31">
         <v>10</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="32">
         <f>B6*B7*2</f>
         <v>100</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="34">
         <f>B11/2</f>
-        <v>3.7650000000000001</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="34">
         <f>B4+(B4*B5)</f>
-        <v>376.5</v>
+        <v>379.5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="32">
         <f>B10/B8*2</f>
-        <v>7.53</v>
+        <v>7.59</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="36">
         <f>B11/4</f>
-        <v>1.8825000000000001</v>
+        <v>1.8975</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="141"/>
       <c r="C14" s="141"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="37">
         <v>20</v>
@@ -9733,17 +9753,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="39">
         <f>B10*B15</f>
-        <v>7530</v>
+        <v>7590</v>
       </c>
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="29">
         <v>0.2</v>
@@ -9752,27 +9772,27 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="40">
         <f>B16*B17</f>
-        <v>1506</v>
+        <v>1518</v>
       </c>
       <c r="C18" s="38"/>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="42">
         <f>B16+B18</f>
-        <v>9036</v>
+        <v>9108</v>
       </c>
       <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="29">
         <v>0.2</v>
@@ -9781,21 +9801,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="43">
         <f>B19*B20</f>
-        <v>1807.2</v>
+        <v>1821.6000000000001</v>
       </c>
       <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="42">
         <f>B19+B21</f>
-        <v>10843.2</v>
+        <v>10929.6</v>
       </c>
       <c r="C22" s="38"/>
     </row>
@@ -9835,7 +9855,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="142"/>
@@ -9850,18 +9870,18 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="143"/>
       <c r="C2" s="143"/>
       <c r="D2" s="143"/>
       <c r="E2" s="44">
         <f>Planejamento!$B$10</f>
-        <v>376.5</v>
+        <v>379.5</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="143"/>
       <c r="I2" s="143"/>
@@ -9872,13 +9892,13 @@
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="144" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="144"/>
       <c r="E3" s="144"/>
       <c r="F3" s="48"/>
       <c r="G3" s="145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="145"/>
       <c r="I3" s="145"/>
@@ -9887,37 +9907,37 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="D4" s="49" t="s">
         <v>81</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>82</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="49" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>84</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="49" t="s">
         <v>85</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -9925,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="124">
         <v>45894</v>
@@ -9937,7 +9957,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="124">
         <v>43132</v>
@@ -9953,7 +9973,7 @@
         <v>-4</v>
       </c>
       <c r="K5" s="128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -9961,7 +9981,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="124">
         <v>45904</v>
@@ -9973,7 +9993,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
@@ -9986,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="124">
         <v>45932</v>
@@ -9998,7 +10018,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="124"/>
       <c r="H7" s="124"/>
@@ -10011,7 +10031,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="55">
         <v>45952</v>
@@ -10023,7 +10043,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="126" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
@@ -10259,7 +10279,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="142" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="142"/>
@@ -10275,166 +10295,166 @@
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" s="69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" s="69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" s="70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D22" s="69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D24" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D25" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D26" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D29" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D30" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="4:4" s="71" customFormat="1" ht="11.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="D31" s="72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D32" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="147" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="153"/>
+      <c r="E33" s="147"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="70">
         <v>4290</v>
       </c>
       <c r="E34" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -10442,7 +10462,7 @@
         <v>5082</v>
       </c>
       <c r="E35" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -10450,7 +10470,7 @@
         <v>4356</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -10458,7 +10478,7 @@
         <v>5929</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -10466,7 +10486,7 @@
         <v>5005</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -10474,147 +10494,147 @@
         <v>4225</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+    </row>
+    <row r="42" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="154"/>
-    </row>
-    <row r="42" spans="1:11" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+    </row>
+    <row r="43" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-    </row>
-    <row r="43" spans="1:11" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+    </row>
+    <row r="44" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-    </row>
-    <row r="44" spans="1:11" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
+      <c r="A46" s="153" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="153"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
     </row>
     <row r="47" spans="1:11" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="C47" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="149" t="s">
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
+    </row>
+    <row r="48" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="155"/>
+      <c r="B48" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="149"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="149"/>
-    </row>
-    <row r="48" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="150"/>
-      <c r="B48" s="146" t="s">
+      <c r="C48" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="D48" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="146" t="s">
+      <c r="E48" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="146" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="146" t="s">
+      <c r="G48" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="H48" s="151" t="s">
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
+    </row>
+    <row r="49" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="155"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-    </row>
-    <row r="49" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="150"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146" t="s">
+      <c r="I49" s="151"/>
+      <c r="J49" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="I49" s="146"/>
-      <c r="J49" s="77" t="s">
+      <c r="K49" s="77" t="s">
         <v>142</v>
-      </c>
-      <c r="K49" s="77" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="78" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10622,29 +10642,29 @@
         <v>1</v>
       </c>
       <c r="B50" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="81">
         <v>43891</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="83" t="str">
         <f t="shared" ref="F50:F60" si="0">IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,0)))</f>
         <v>Média</v>
       </c>
       <c r="G50" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
+        <v>111</v>
+      </c>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
       <c r="J50" s="84"/>
       <c r="K50" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="78" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10652,7 +10672,7 @@
       <c r="B51" s="80"/>
       <c r="C51" s="81"/>
       <c r="D51" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="82"/>
       <c r="F51" s="83" t="e">
@@ -10788,8 +10808,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="82"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
     </row>
@@ -10804,19 +10824,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="82"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
@@ -10831,6 +10845,12 @@
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:K48"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
@@ -10894,7 +10914,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -10912,7 +10932,7 @@
     </row>
     <row r="2" spans="1:23" s="87" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
@@ -10930,7 +10950,7 @@
     </row>
     <row r="3" spans="1:23" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="161" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="161"/>
       <c r="C3" s="161"/>
@@ -10948,7 +10968,7 @@
     </row>
     <row r="4" spans="1:23" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="162"/>
       <c r="C4" s="162"/>
@@ -10966,7 +10986,7 @@
     </row>
     <row r="5" spans="1:23" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="163"/>
       <c r="C5" s="163"/>
@@ -10985,75 +11005,75 @@
     <row r="6" spans="1:23" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="157"/>
       <c r="D7" s="157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="157"/>
       <c r="G7" s="157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="157"/>
       <c r="I7" s="157"/>
       <c r="J7" s="157"/>
       <c r="K7" s="157"/>
       <c r="M7" s="157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N7" s="157"/>
     </row>
     <row r="8" spans="1:23" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="D8" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="E8" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="91" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="90" t="s">
+      <c r="H8" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="90" t="s">
+      <c r="I8" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="91" t="s">
+      <c r="K8" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="K8" s="91" t="s">
+      <c r="M8" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="91" t="s">
+      <c r="N8" s="91" t="s">
         <v>161</v>
-      </c>
-      <c r="N8" s="91" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="88" t="s">
+      <c r="E9" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="90" t="s">
         <v>164</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="90" t="s">
-        <v>165</v>
       </c>
       <c r="H9" s="88">
         <v>2</v>
@@ -11069,21 +11089,21 @@
         <v>8</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N9" s="93"/>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="88"/>
       <c r="E10" s="89"/>
       <c r="G10" s="90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="88"/>
       <c r="I10" s="88"/>
@@ -11093,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N10" s="93"/>
     </row>
@@ -11103,14 +11123,14 @@
       <c r="D11" s="88"/>
       <c r="E11" s="89"/>
       <c r="G11" s="157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="157"/>
       <c r="I11" s="157"/>
       <c r="J11" s="157"/>
       <c r="K11" s="157"/>
       <c r="M11" s="92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N11" s="93"/>
     </row>
@@ -11120,22 +11140,22 @@
       <c r="D12" s="88"/>
       <c r="E12" s="89"/>
       <c r="G12" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="I12" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="91" t="s">
+      <c r="K12" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="91" t="s">
-        <v>160</v>
-      </c>
       <c r="M12" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N12" s="93"/>
     </row>
@@ -11145,7 +11165,7 @@
       <c r="D13" s="88"/>
       <c r="E13" s="89"/>
       <c r="G13" s="90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="88">
         <v>1</v>
@@ -11157,11 +11177,11 @@
         <v>3</v>
       </c>
       <c r="M13" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N13" s="93"/>
       <c r="W13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11170,7 +11190,7 @@
       <c r="D14" s="88"/>
       <c r="E14" s="89"/>
       <c r="G14" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="88"/>
       <c r="I14" s="88"/>
@@ -11180,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N14" s="93"/>
     </row>
@@ -11190,7 +11210,7 @@
       <c r="D15" s="88"/>
       <c r="E15" s="89"/>
       <c r="G15" s="90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" s="88">
         <v>1</v>
@@ -11202,7 +11222,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N15" s="93"/>
     </row>
@@ -11212,7 +11232,7 @@
       <c r="D16" s="88"/>
       <c r="E16" s="89"/>
       <c r="G16" s="158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" s="158"/>
       <c r="I16" s="158"/>
@@ -11222,7 +11242,7 @@
         <v>14</v>
       </c>
       <c r="M16" s="92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N16" s="93"/>
     </row>
@@ -11232,7 +11252,7 @@
       <c r="D17" s="88"/>
       <c r="E17" s="89"/>
       <c r="M17" s="92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N17" s="93"/>
     </row>
@@ -11242,7 +11262,7 @@
       <c r="D18" s="88"/>
       <c r="E18" s="89"/>
       <c r="M18" s="92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N18" s="93"/>
     </row>
@@ -11252,7 +11272,7 @@
       <c r="D19" s="88"/>
       <c r="E19" s="89"/>
       <c r="M19" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N19" s="93"/>
     </row>
@@ -11262,25 +11282,25 @@
       <c r="D20" s="88"/>
       <c r="E20" s="89"/>
       <c r="M20" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N20" s="93"/>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M21" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N21" s="93"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M22" s="92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" s="93"/>
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M23" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N23" s="96">
         <f>SUM(N9:N22)</f>
@@ -11289,7 +11309,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N24" s="94">
         <f>(N23*0.01)+0.65</f>
@@ -11298,7 +11318,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" s="97">
         <f>K16*N24</f>
@@ -11307,7 +11327,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N26" s="98">
         <v>19</v>
@@ -11315,7 +11335,7 @@
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M27" s="99" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N27" s="100">
         <f>N25*N26</f>
@@ -11382,7 +11402,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -11401,12 +11421,12 @@
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="165"/>
       <c r="C3" s="165"/>
       <c r="E3" s="165" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="165"/>
       <c r="G3" s="165"/>
@@ -11420,17 +11440,17 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="102">
         <f>'#Estimativa-APF#'!$N$27</f>
         <v>172.9</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="166" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" s="164" t="s">
         <v>16</v>
@@ -11441,24 +11461,24 @@
       </c>
       <c r="I4" s="164"/>
       <c r="J4" s="164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="164"/>
       <c r="L4" s="164" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" s="164"/>
       <c r="N4" s="103"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="29">
         <v>0</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="166"/>
       <c r="F5" s="164" t="s">
@@ -11478,19 +11498,19 @@
       </c>
       <c r="M5" s="164"/>
       <c r="N5" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="105">
         <f>B4+(B4*B5)</f>
         <v>172.9</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="166"/>
       <c r="F6" s="106">
@@ -11525,14 +11545,14 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="31">
         <v>1</v>
       </c>
       <c r="C7" s="30"/>
       <c r="E7" s="108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="106">
         <f>F6*G7</f>
@@ -11569,16 +11589,16 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="31">
         <v>40</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="108" t="s">
         <v>202</v>
-      </c>
-      <c r="E8" s="108" t="s">
-        <v>203</v>
       </c>
       <c r="F8" s="106">
         <f>F6*G8</f>
@@ -11615,16 +11635,16 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="31">
         <v>2</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="106">
         <f>F6*G9</f>
@@ -11661,17 +11681,17 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="111">
         <f>(B7*B8)*B9</f>
         <v>80</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" s="106">
         <f>F6*G10</f>
@@ -11708,17 +11728,17 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="112">
         <f>B6/B10*2</f>
         <v>4.3224999999999998</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" s="106">
         <f>F6*G11</f>
@@ -11755,17 +11775,17 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="112">
         <f>B11/4</f>
         <v>1.0806249999999999</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="114">
         <f t="shared" ref="F12:M12" si="0">SUM(F7:F11)</f>
@@ -11803,17 +11823,17 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="116">
         <f>B11/B9</f>
         <v>2.1612499999999999</v>
       </c>
       <c r="C13" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="108" t="s">
         <v>213</v>
-      </c>
-      <c r="E13" s="108" t="s">
-        <v>214</v>
       </c>
       <c r="F13" s="106">
         <f>F6*G13</f>
@@ -11850,7 +11870,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="106">
         <f>F6*G14</f>
@@ -11887,7 +11907,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" s="113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="114">
         <f t="shared" ref="F15:M15" si="1">SUM(F13:F14)</f>
@@ -11925,12 +11945,12 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="165" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="165"/>
       <c r="C16" s="165"/>
       <c r="E16" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" s="117">
         <f t="shared" ref="F16:M16" si="2">F12+F15</f>
@@ -11971,7 +11991,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="120">
         <v>20</v>
@@ -11981,7 +12001,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="39">
         <f>B6*B17</f>
@@ -11993,7 +12013,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="29">
         <v>0</v>
@@ -12003,7 +12023,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="40">
         <f>B18*B19</f>
@@ -12015,7 +12035,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" s="121">
         <f>B18+B20</f>
@@ -12026,7 +12046,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="29">
         <v>0.2</v>
@@ -12036,7 +12056,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="43">
         <f>B21*B22</f>
@@ -12046,7 +12066,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="121">
         <f>B21+B23</f>
